--- a/projects/solarcell/xrd/nezamloo/data.xlsx
+++ b/projects/solarcell/xrd/nezamloo/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>voc_s1</t>
   </si>
@@ -277,6 +277,48 @@
   </si>
   <si>
     <t>PL_relative_amplitude_peak2</t>
+  </si>
+  <si>
+    <t>Bandgap Energy (eV)</t>
+  </si>
+  <si>
+    <t>Urbach energy (meV)</t>
+  </si>
+  <si>
+    <t>Dislocation_Density_1</t>
+  </si>
+  <si>
+    <t>Sherer_2</t>
+  </si>
+  <si>
+    <t>Dislocation_Density_2</t>
+  </si>
+  <si>
+    <t>Sherer_3</t>
+  </si>
+  <si>
+    <t>Dislocation_Density_3</t>
+  </si>
+  <si>
+    <t>Sherer_4</t>
+  </si>
+  <si>
+    <t>Dislocation_Density_4</t>
+  </si>
+  <si>
+    <t>Sherer_5</t>
+  </si>
+  <si>
+    <t>Dislocation_Density_5</t>
+  </si>
+  <si>
+    <t>Sherer_6</t>
+  </si>
+  <si>
+    <t>Dislocation_Density_6</t>
+  </si>
+  <si>
+    <t>Sherer_1</t>
   </si>
 </sst>
 </file>
@@ -665,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:BC28"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AN36" sqref="AN36"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:BC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,9 +735,13 @@
     <col min="38" max="38" width="28.42578125" customWidth="1"/>
     <col min="39" max="40" width="29.7109375" customWidth="1"/>
     <col min="41" max="41" width="35" customWidth="1"/>
+    <col min="42" max="42" width="27" style="5" customWidth="1"/>
+    <col min="43" max="43" width="38.140625" style="5" customWidth="1"/>
+    <col min="44" max="55" width="32.7109375" style="5" customWidth="1"/>
+    <col min="56" max="57" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -819,8 +865,50 @@
       <c r="AO1" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="AP1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -944,8 +1032,50 @@
       <c r="AO2" s="6">
         <v>100</v>
       </c>
+      <c r="AP2" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1069,8 +1199,50 @@
       <c r="AO3" s="6">
         <v>100</v>
       </c>
+      <c r="AP3" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1194,8 +1366,50 @@
       <c r="AO4" s="6">
         <v>100</v>
       </c>
+      <c r="AP4" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA4" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB4" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1319,8 +1533,50 @@
       <c r="AO5" s="6">
         <v>100</v>
       </c>
+      <c r="AP5" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1444,8 +1700,50 @@
       <c r="AO6" s="6">
         <v>100</v>
       </c>
+      <c r="AP6" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ6" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA6" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB6" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1569,8 +1867,50 @@
       <c r="AO7" s="6">
         <v>100</v>
       </c>
+      <c r="AP7" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU7" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW7" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX7" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY7" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ7" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA7" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB7" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC7" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1694,8 +2034,50 @@
       <c r="AO8" s="6">
         <v>100</v>
       </c>
+      <c r="AP8" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>344.1</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>0.47538534340718369</v>
+      </c>
+      <c r="AS8" s="5">
+        <v>4.4249505758943393</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>0.6840395342178206</v>
+      </c>
+      <c r="AU8" s="5">
+        <v>2.137162744291234</v>
+      </c>
+      <c r="AV8" s="5">
+        <v>0.4248246784689379</v>
+      </c>
+      <c r="AW8" s="5">
+        <v>5.5409027172396179</v>
+      </c>
+      <c r="AX8" s="5">
+        <v>0.40583642692567018</v>
+      </c>
+      <c r="AY8" s="5">
+        <v>6.0715272507976028</v>
+      </c>
+      <c r="AZ8" s="5">
+        <v>0.25568365575128438</v>
+      </c>
+      <c r="BA8" s="5">
+        <v>15.296570251651749</v>
+      </c>
+      <c r="BB8" s="5">
+        <v>0.29885377154652842</v>
+      </c>
+      <c r="BC8" s="5">
+        <v>11.196506020604691</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1819,8 +2201,50 @@
       <c r="AO9" s="6">
         <v>100</v>
       </c>
+      <c r="AP9" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ9" s="6">
+        <v>344.1</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>0.47538534340718369</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>4.4249505758943393</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>0.6840395342178206</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>2.137162744291234</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>0.4248246784689379</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>5.5409027172396179</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>0.40583642692567018</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>6.0715272507976028</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>0.25568365575128438</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>15.296570251651749</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>0.29885377154652842</v>
+      </c>
+      <c r="BC9" s="5">
+        <v>11.196506020604691</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1944,8 +2368,50 @@
       <c r="AO10" s="6">
         <v>100</v>
       </c>
+      <c r="AP10" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ10" s="6">
+        <v>344.1</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>0.47538534340718369</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>4.4249505758943393</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>0.6840395342178206</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>2.137162744291234</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>0.4248246784689379</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>5.5409027172396179</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>0.40583642692567018</v>
+      </c>
+      <c r="AY10" s="5">
+        <v>6.0715272507976028</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>0.25568365575128438</v>
+      </c>
+      <c r="BA10" s="5">
+        <v>15.296570251651749</v>
+      </c>
+      <c r="BB10" s="5">
+        <v>0.29885377154652842</v>
+      </c>
+      <c r="BC10" s="5">
+        <v>11.196506020604691</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2069,8 +2535,50 @@
       <c r="AO11" s="6">
         <v>100</v>
       </c>
+      <c r="AP11" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ11" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC11" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2194,8 +2702,50 @@
       <c r="AO12" s="6">
         <v>100</v>
       </c>
+      <c r="AP12" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ12" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU12" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB12" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC12" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2319,8 +2869,50 @@
       <c r="AO13" s="6">
         <v>100</v>
       </c>
+      <c r="AP13" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU13" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC13" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2444,8 +3036,50 @@
       <c r="AO14" s="6">
         <v>100</v>
       </c>
+      <c r="AP14" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ14" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ14" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA14" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB14" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC14" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2569,8 +3203,50 @@
       <c r="AO15" s="6">
         <v>100</v>
       </c>
+      <c r="AP15" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ15" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU15" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC15" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2694,8 +3370,50 @@
       <c r="AO16" s="6">
         <v>100</v>
       </c>
+      <c r="AP16" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ16" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA16" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB16" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC16" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2819,8 +3537,50 @@
       <c r="AO17" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP17" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU17" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV17" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW17" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX17" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY17" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA17" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB17" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC17" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2944,8 +3704,50 @@
       <c r="AO18" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP18" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ18" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS18" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU18" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY18" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA18" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB18" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC18" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3871,50 @@
       <c r="AO19" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP19" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS19" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU19" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX19" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY19" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB19" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC19" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -3194,8 +4038,50 @@
       <c r="AO20" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP20" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY20" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA20" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB20" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC20" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3319,8 +4205,50 @@
       <c r="AO21" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP21" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS21" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU21" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV21" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW21" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX21" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY21" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA21" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB21" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC21" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3444,8 +4372,50 @@
       <c r="AO22" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP22" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ22" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS22" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT22" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU22" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV22" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW22" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX22" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY22" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ22" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA22" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB22" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC22" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3569,8 +4539,50 @@
       <c r="AO23" s="6">
         <v>100</v>
       </c>
+      <c r="AP23" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ23" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS23" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT23" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU23" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV23" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW23" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX23" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY23" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ23" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA23" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB23" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC23" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3694,8 +4706,50 @@
       <c r="AO24" s="6">
         <v>100</v>
       </c>
+      <c r="AP24" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ24" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR24" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS24" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT24" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU24" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV24" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW24" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX24" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY24" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ24" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA24" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB24" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC24" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3819,8 +4873,50 @@
       <c r="AO25" s="6">
         <v>100</v>
       </c>
+      <c r="AP25" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ25" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT25" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU25" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV25" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW25" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX25" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY25" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ25" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA25" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB25" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC25" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3944,8 +5040,50 @@
       <c r="AO26" s="6">
         <v>100</v>
       </c>
+      <c r="AP26" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ26" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR26" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS26" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT26" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU26" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV26" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW26" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX26" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY26" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ26" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA26" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB26" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC26" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4069,8 +5207,50 @@
       <c r="AO27" s="6">
         <v>100</v>
       </c>
+      <c r="AP27" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ27" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS27" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU27" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV27" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW27" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX27" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY27" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ27" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA27" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB27" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC27" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -4193,6 +5373,48 @@
       </c>
       <c r="AO28" s="6">
         <v>100</v>
+      </c>
+      <c r="AP28" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ28" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS28" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT28" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU28" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV28" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW28" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX28" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY28" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ28" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA28" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB28" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC28" s="5">
+        <v>2.3990186570245591</v>
       </c>
     </row>
   </sheetData>
@@ -4203,10 +5425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:BC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AO1048576"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AO31" sqref="AO31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,9 +5452,12 @@
     <col min="38" max="38" width="28.42578125" customWidth="1"/>
     <col min="39" max="40" width="29.7109375" customWidth="1"/>
     <col min="41" max="41" width="35" customWidth="1"/>
+    <col min="42" max="42" width="27" customWidth="1"/>
+    <col min="43" max="43" width="38.140625" customWidth="1"/>
+    <col min="44" max="55" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4356,8 +5581,50 @@
       <c r="AO1" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="AP1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -4475,14 +5742,56 @@
       <c r="AM2" s="6">
         <v>493.5</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="5">
         <v>64.05</v>
       </c>
       <c r="AO2" s="6">
         <v>100</v>
       </c>
+      <c r="AP2" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR2" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS2" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU2" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -4600,14 +5909,56 @@
       <c r="AM3" s="6">
         <v>493.5</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="5">
         <v>64.05</v>
       </c>
       <c r="AO3" s="6">
         <v>100</v>
       </c>
+      <c r="AP3" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ3" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -4725,14 +6076,56 @@
       <c r="AM4" s="6">
         <v>493.5</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="5">
         <v>64.05</v>
       </c>
       <c r="AO4" s="6">
         <v>100</v>
       </c>
+      <c r="AP4" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS4" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ4" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA4" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB4" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -4850,14 +6243,56 @@
       <c r="AM5" s="6">
         <v>493.5</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="5">
         <v>64.05</v>
       </c>
       <c r="AO5" s="6">
         <v>100</v>
       </c>
+      <c r="AP5" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR5" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS5" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT5" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU5" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX5" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY5" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ5" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA5" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB5" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC5" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -4975,14 +6410,56 @@
       <c r="AM6" s="6">
         <v>493.5</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="5">
         <v>64.05</v>
       </c>
       <c r="AO6" s="6">
         <v>100</v>
       </c>
+      <c r="AP6" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR6" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS6" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT6" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU6" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW6" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX6" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY6" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ6" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA6" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB6" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC6" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -5100,14 +6577,56 @@
       <c r="AM7" s="6">
         <v>493.5</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="5">
         <v>64.05</v>
       </c>
       <c r="AO7" s="6">
         <v>100</v>
       </c>
+      <c r="AP7" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="AR7" s="5">
+        <v>0.31705118608721478</v>
+      </c>
+      <c r="AS7" s="5">
+        <v>9.9481250444108404</v>
+      </c>
+      <c r="AT7" s="5">
+        <v>0.41049121502420621</v>
+      </c>
+      <c r="AU7" s="5">
+        <v>5.9346111154526353</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>0.28327405189250782</v>
+      </c>
+      <c r="AW7" s="5">
+        <v>12.46196165724926</v>
+      </c>
+      <c r="AX7" s="5">
+        <v>0.26350976840961882</v>
+      </c>
+      <c r="AY7" s="5">
+        <v>14.40146128918802</v>
+      </c>
+      <c r="AZ7" s="5">
+        <v>0.28935051004471057</v>
+      </c>
+      <c r="BA7" s="5">
+        <v>11.94404677565252</v>
+      </c>
+      <c r="BB7" s="5">
+        <v>0.1744475247389338</v>
+      </c>
+      <c r="BC7" s="5">
+        <v>32.860213202169902</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -5231,8 +6750,50 @@
       <c r="AO8" s="6">
         <v>100</v>
       </c>
+      <c r="AP8" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>344.1</v>
+      </c>
+      <c r="AR8" s="5">
+        <v>0.47538534340718369</v>
+      </c>
+      <c r="AS8" s="5">
+        <v>4.4249505758943393</v>
+      </c>
+      <c r="AT8" s="5">
+        <v>0.6840395342178206</v>
+      </c>
+      <c r="AU8" s="5">
+        <v>2.137162744291234</v>
+      </c>
+      <c r="AV8" s="5">
+        <v>0.4248246784689379</v>
+      </c>
+      <c r="AW8" s="5">
+        <v>5.5409027172396179</v>
+      </c>
+      <c r="AX8" s="5">
+        <v>0.40583642692567018</v>
+      </c>
+      <c r="AY8" s="5">
+        <v>6.0715272507976028</v>
+      </c>
+      <c r="AZ8" s="5">
+        <v>0.25568365575128438</v>
+      </c>
+      <c r="BA8" s="5">
+        <v>15.296570251651749</v>
+      </c>
+      <c r="BB8" s="5">
+        <v>0.29885377154652842</v>
+      </c>
+      <c r="BC8" s="5">
+        <v>11.196506020604691</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -5356,8 +6917,50 @@
       <c r="AO9" s="6">
         <v>100</v>
       </c>
+      <c r="AP9" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ9" s="6">
+        <v>344.1</v>
+      </c>
+      <c r="AR9" s="5">
+        <v>0.47538534340718369</v>
+      </c>
+      <c r="AS9" s="5">
+        <v>4.4249505758943393</v>
+      </c>
+      <c r="AT9" s="5">
+        <v>0.6840395342178206</v>
+      </c>
+      <c r="AU9" s="5">
+        <v>2.137162744291234</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>0.4248246784689379</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>5.5409027172396179</v>
+      </c>
+      <c r="AX9" s="5">
+        <v>0.40583642692567018</v>
+      </c>
+      <c r="AY9" s="5">
+        <v>6.0715272507976028</v>
+      </c>
+      <c r="AZ9" s="5">
+        <v>0.25568365575128438</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>15.296570251651749</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>0.29885377154652842</v>
+      </c>
+      <c r="BC9" s="5">
+        <v>11.196506020604691</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -5481,8 +7084,50 @@
       <c r="AO10" s="6">
         <v>100</v>
       </c>
+      <c r="AP10" s="6">
+        <v>3.2439840000000002</v>
+      </c>
+      <c r="AQ10" s="6">
+        <v>344.1</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>0.47538534340718369</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>4.4249505758943393</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>0.6840395342178206</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>2.137162744291234</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>0.4248246784689379</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>5.5409027172396179</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>0.40583642692567018</v>
+      </c>
+      <c r="AY10" s="5">
+        <v>6.0715272507976028</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>0.25568365575128438</v>
+      </c>
+      <c r="BA10" s="5">
+        <v>15.296570251651749</v>
+      </c>
+      <c r="BB10" s="5">
+        <v>0.29885377154652842</v>
+      </c>
+      <c r="BC10" s="5">
+        <v>11.196506020604691</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -5606,8 +7251,50 @@
       <c r="AO11" s="6">
         <v>100</v>
       </c>
+      <c r="AP11" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ11" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC11" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -5731,8 +7418,50 @@
       <c r="AO12" s="6">
         <v>100</v>
       </c>
+      <c r="AP12" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ12" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU12" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB12" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC12" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -5856,8 +7585,50 @@
       <c r="AO13" s="6">
         <v>100</v>
       </c>
+      <c r="AP13" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU13" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC13" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -5981,8 +7752,50 @@
       <c r="AO14" s="6">
         <v>100</v>
       </c>
+      <c r="AP14" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ14" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ14" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA14" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB14" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC14" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -6106,8 +7919,50 @@
       <c r="AO15" s="6">
         <v>100</v>
       </c>
+      <c r="AP15" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ15" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU15" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC15" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -6231,8 +8086,50 @@
       <c r="AO16" s="6">
         <v>100</v>
       </c>
+      <c r="AP16" s="6">
+        <v>3.1533009999999999</v>
+      </c>
+      <c r="AQ16" s="6">
+        <v>312.3</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>0.71818254163850614</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>1.9387879542210791</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>0.60166058097833663</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>2.762465624934237</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>0.55608108140234991</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>3.2338789531661098</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>0.51996404376091909</v>
+      </c>
+      <c r="BA16" s="5">
+        <v>3.698736344572187</v>
+      </c>
+      <c r="BB16" s="5">
+        <v>0.44818343840181268</v>
+      </c>
+      <c r="BC16" s="5">
+        <v>4.9783839946544104</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -6356,8 +8253,50 @@
       <c r="AO17" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP17" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU17" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV17" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW17" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX17" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY17" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA17" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB17" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC17" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -6481,8 +8420,50 @@
       <c r="AO18" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP18" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ18" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS18" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU18" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY18" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA18" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB18" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC18" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>3</v>
       </c>
@@ -6606,8 +8587,50 @@
       <c r="AO19" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP19" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS19" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU19" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX19" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY19" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB19" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC19" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>4</v>
       </c>
@@ -6731,8 +8754,50 @@
       <c r="AO20" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP20" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY20" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA20" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB20" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC20" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -6856,8 +8921,50 @@
       <c r="AO21" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP21" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS21" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU21" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV21" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW21" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX21" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY21" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA21" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB21" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC21" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -6981,8 +9088,50 @@
       <c r="AO22" s="6">
         <v>66.239999999999995</v>
       </c>
+      <c r="AP22" s="6">
+        <v>3.2567560000000002</v>
+      </c>
+      <c r="AQ22" s="6">
+        <v>279.2</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>0.31694743684690962</v>
+      </c>
+      <c r="AS22" s="5">
+        <v>9.9546389279181877</v>
+      </c>
+      <c r="AT22" s="5">
+        <v>0.36832897996344183</v>
+      </c>
+      <c r="AU22" s="5">
+        <v>7.3710306894942557</v>
+      </c>
+      <c r="AV22" s="5">
+        <v>0.27768949891307848</v>
+      </c>
+      <c r="AW22" s="5">
+        <v>12.96824140594128</v>
+      </c>
+      <c r="AX22" s="5">
+        <v>0.20569791501712051</v>
+      </c>
+      <c r="AY22" s="5">
+        <v>23.63416268772858</v>
+      </c>
+      <c r="AZ22" s="5">
+        <v>0.21117793879876251</v>
+      </c>
+      <c r="BA22" s="5">
+        <v>22.423474482675498</v>
+      </c>
+      <c r="BB22" s="5">
+        <v>0.21245879768328749</v>
+      </c>
+      <c r="BC22" s="5">
+        <v>22.15391887774522</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -7106,8 +9255,50 @@
       <c r="AO23" s="6">
         <v>100</v>
       </c>
+      <c r="AP23" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ23" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS23" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT23" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU23" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV23" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW23" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX23" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY23" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ23" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA23" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB23" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC23" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -7231,8 +9422,50 @@
       <c r="AO24" s="6">
         <v>100</v>
       </c>
+      <c r="AP24" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ24" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR24" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS24" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT24" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU24" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV24" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW24" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX24" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY24" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ24" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA24" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB24" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC24" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>3</v>
       </c>
@@ -7356,8 +9589,50 @@
       <c r="AO25" s="6">
         <v>100</v>
       </c>
+      <c r="AP25" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ25" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT25" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU25" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV25" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW25" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX25" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY25" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ25" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA25" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB25" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC25" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -7481,8 +9756,50 @@
       <c r="AO26" s="6">
         <v>100</v>
       </c>
+      <c r="AP26" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ26" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR26" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS26" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT26" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU26" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV26" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW26" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX26" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY26" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ26" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA26" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB26" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC26" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>5</v>
       </c>
@@ -7606,8 +9923,50 @@
       <c r="AO27" s="6">
         <v>100</v>
       </c>
+      <c r="AP27" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ27" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS27" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU27" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV27" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW27" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX27" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY27" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ27" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA27" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB27" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC27" s="5">
+        <v>2.3990186570245591</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>6</v>
       </c>
@@ -7730,6 +10089,48 @@
       </c>
       <c r="AO28" s="6">
         <v>100</v>
+      </c>
+      <c r="AP28" s="6">
+        <v>3.1856840000000002</v>
+      </c>
+      <c r="AQ28" s="6">
+        <v>333.4</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>0.75066498200583853</v>
+      </c>
+      <c r="AS28" s="5">
+        <v>1.774629458260971</v>
+      </c>
+      <c r="AT28" s="5">
+        <v>0.84512897210865978</v>
+      </c>
+      <c r="AU28" s="5">
+        <v>1.400083765196581</v>
+      </c>
+      <c r="AV28" s="5">
+        <v>0.62787426397602164</v>
+      </c>
+      <c r="AW28" s="5">
+        <v>2.536615464850386</v>
+      </c>
+      <c r="AX28" s="5">
+        <v>0.62551800167341953</v>
+      </c>
+      <c r="AY28" s="5">
+        <v>2.5557617999661688</v>
+      </c>
+      <c r="AZ28" s="5">
+        <v>0.43388076946087328</v>
+      </c>
+      <c r="BA28" s="5">
+        <v>5.3120138248480817</v>
+      </c>
+      <c r="BB28" s="5">
+        <v>0.64562923447086196</v>
+      </c>
+      <c r="BC28" s="5">
+        <v>2.3990186570245591</v>
       </c>
     </row>
   </sheetData>
